--- a/Backend_Server/Python Script/file.xlsx
+++ b/Backend_Server/Python Script/file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Quick Aid\QuickAid\Backend_Server\Python Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E502FE-A0B4-45B0-862A-8C2C6459DA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FF45CE-19E4-4035-8C5B-A6BA35D49B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29430" yWindow="1515" windowWidth="25950" windowHeight="11295" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="615" windowWidth="25950" windowHeight="13890" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSD" sheetId="1" r:id="rId1"/>
@@ -63,8 +63,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{5DF6FF51-F151-4BA8-88B2-6520431B955D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{F59CF745-12AD-4ACF-A255-FACD11498EA9}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{5DF6FF51-F151-4BA8-88B2-6520431B955D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -7640,10 +7640,10 @@
   <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J95" sqref="J95"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11725,9 +11725,9 @@
   </sheetData>
   <autoFilter ref="A1:T75" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{F59CF745-12AD-4ACF-A255-FACD11498EA9}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{5DF6FF51-F151-4BA8-88B2-6520431B955D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:HJ384" xr:uid="{AA2BF0DA-0789-46C0-9C70-0FF9FFB91877}">
+      <autoFilter ref="A1:HJ384" xr:uid="{CE650E79-6271-42D0-9EF6-0260E09FD88E}">
         <filterColumn colId="1">
           <filters>
             <filter val="Active"/>
@@ -11737,9 +11737,9 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{5DF6FF51-F151-4BA8-88B2-6520431B955D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{F59CF745-12AD-4ACF-A255-FACD11498EA9}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:HJ384" xr:uid="{68DAC06E-4249-4861-8AA6-053641BBE907}">
+      <autoFilter ref="A1:HJ384" xr:uid="{A3F9CAAD-C599-4C3E-BCD1-2E6A1893A99E}">
         <filterColumn colId="1">
           <filters>
             <filter val="Active"/>
@@ -13073,7 +13073,7 @@
   <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
@@ -15766,10 +15766,10 @@
   <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F83" sqref="F83"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19631,10 +19631,10 @@
   <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22208,7 +22208,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22570,7 +22570,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
@@ -23670,7 +23670,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="C11:G11"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
